--- a/docs/PerformanceGeneratorV2.xlsx
+++ b/docs/PerformanceGeneratorV2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D57116-344C-1A42-BB7D-8E4ECB1C8922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A54E82-10FD-E94E-9B98-B5AD077607A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="v2" sheetId="3" r:id="rId1"/>
     <sheet name="scenario 1 &amp; 3 &amp; 5" sheetId="4" r:id="rId2"/>
+    <sheet name="scenario 7 &amp; 9" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>scenario: upload  3MB file</t>
   </si>
@@ -289,10 +290,6 @@
     <t>Storage Type: general purpose v2</t>
   </si>
   <si>
-    <t>pool 1 (appender): Standard_F4s_v2 
-pool 2(generator): D4s_v3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -659,13 +656,203 @@
   </si>
   <si>
     <t>09min28sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool 1 (appender): Standard_F4s_v2 
+pool 2(generator): Standard_F4s_v2 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1000 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 1 hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~1 pods per node - 32 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub  1TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2000 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 1 hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~1 pods per node - 32 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub  1TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <t>row 1 - scenario 7</t>
+  </si>
+  <si>
+    <t>scemario 7</t>
+  </si>
+  <si>
+    <t>scenario 9</t>
+  </si>
+  <si>
+    <t>row 2 - scenario 9</t>
+  </si>
+  <si>
+    <t>write per 1min</t>
+  </si>
+  <si>
+    <t>~59600</t>
+  </si>
+  <si>
+    <t>~1000</t>
+  </si>
+  <si>
+    <t>read per 1min</t>
+  </si>
+  <si>
+    <t>~9900</t>
+  </si>
+  <si>
+    <t>writes per sec</t>
+  </si>
+  <si>
+    <t>reads per sec</t>
+  </si>
+  <si>
+    <t>~1397</t>
+  </si>
+  <si>
+    <t>~107</t>
+  </si>
+  <si>
+    <t>calc based on 1hr granularity value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -750,8 +937,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -835,6 +1036,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,6 +1326,99 @@
         <a:xfrm>
           <a:off x="0" y="7073605"/>
           <a:ext cx="15087600" cy="6553200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>377348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA1A5C6-24C2-F221-9BD2-69C72255F800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18563748" cy="7556500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378AC9A8-12B3-4270-23E5-074FCA699D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9398000"/>
+          <a:ext cx="14706600" cy="7480300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1425,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0060E-F532-F846-B1C3-67FC916E9829}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="E1" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,9 +1748,10 @@
     <col min="13" max="14" width="14.83203125" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1459,12 +1762,18 @@
         <v>6</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -1479,24 +1788,30 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -1506,7 +1821,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1516,11 +1831,12 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>1</v>
@@ -1530,7 +1846,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1540,15 +1856,16 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" location="'scenario 3'!A1" display="scenario 3" xr:uid="{CAA65894-94A1-2C4E-A786-771E900710BB}"/>
-    <hyperlink ref="G1" location="'scenario 3'!A1" display="scenario 3" xr:uid="{0FDF35F5-AA23-6D4E-994B-8900EF84DD1D}"/>
-    <hyperlink ref="M1" location="'scenario 3'!A1" display="scenario 3" xr:uid="{3DED8881-A16C-904D-853C-BC789941AC40}"/>
+    <hyperlink ref="M1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 5" xr:uid="{8039042E-166E-2944-A11A-B3BE0DFE980D}"/>
+    <hyperlink ref="J1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 3" xr:uid="{313A3914-2A1B-EA48-B72B-53B5315CA1B3}"/>
+    <hyperlink ref="G1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 1" xr:uid="{118E98CB-D4FE-B24D-8611-82EF641D9935}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1560,13 +1877,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3BF52-2960-904C-A662-3A92B7AA0CFA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
-    </sheetView>
+    <sheetView zoomScale="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D65A8-6530-154B-BC81-D31F77D86AB0}">
+  <dimension ref="A39:E44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="39" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/docs/PerformanceGeneratorV2.xlsx
+++ b/docs/PerformanceGeneratorV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A54E82-10FD-E94E-9B98-B5AD077607A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506DBA0F-793B-934C-A878-4D864769BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="v2" sheetId="3" r:id="rId1"/>
     <sheet name="scenario 1 &amp; 3 &amp; 5" sheetId="4" r:id="rId2"/>
     <sheet name="scenario 7 &amp; 9" sheetId="5" r:id="rId3"/>
+    <sheet name="scenario 8 &amp; 10" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>scenario: upload  3MB file</t>
   </si>
@@ -846,13 +847,58 @@
   </si>
   <si>
     <t>calc based on 1hr granularity value</t>
+  </si>
+  <si>
+    <t>scemario 8</t>
+  </si>
+  <si>
+    <t>same as scenario 7 - just with premium storage</t>
+  </si>
+  <si>
+    <t>same as scenario 9 - just with premium storage</t>
+  </si>
+  <si>
+    <t>row 1 - scenario 8</t>
+  </si>
+  <si>
+    <t>row 2 - scenario 10</t>
+  </si>
+  <si>
+    <t>~120000</t>
+  </si>
+  <si>
+    <t>~2000</t>
+  </si>
+  <si>
+    <t>~59700</t>
+  </si>
+  <si>
+    <t>~995</t>
+  </si>
+  <si>
+    <t>~12700</t>
+  </si>
+  <si>
+    <t>~211</t>
+  </si>
+  <si>
+    <t>Premium disk</t>
+  </si>
+  <si>
+    <t>~11000</t>
+  </si>
+  <si>
+    <t>~186</t>
+  </si>
+  <si>
+    <t>It took 15min more to complete the failing PutBlob operation !!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -945,6 +991,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1000,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1045,6 +1107,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1430,6 +1497,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEC2712-1790-83E3-150E-6A68CBB7CE82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="533400"/>
+          <a:ext cx="14859000" cy="6375400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4802C67B-CD22-DBE6-A26A-1BFB1957F968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8750300"/>
+          <a:ext cx="13779500" cy="4927600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1727,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0060E-F532-F846-B1C3-67FC916E9829}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="H1" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,11 +1907,11 @@
     <col min="12" max="12" width="5.33203125" customWidth="1"/>
     <col min="13" max="14" width="14.83203125" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="16" max="17" width="21" customWidth="1"/>
+    <col min="18" max="19" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1764,14 +1924,20 @@
       <c r="M1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1807,11 +1973,17 @@
       <c r="P2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="S2" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -1835,8 +2007,9 @@
       </c>
       <c r="N3" s="9"/>
       <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>1</v>
@@ -1860,12 +2033,15 @@
       </c>
       <c r="N4" s="9"/>
       <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 5" xr:uid="{8039042E-166E-2944-A11A-B3BE0DFE980D}"/>
     <hyperlink ref="J1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 3" xr:uid="{313A3914-2A1B-EA48-B72B-53B5315CA1B3}"/>
     <hyperlink ref="G1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 1" xr:uid="{118E98CB-D4FE-B24D-8611-82EF641D9935}"/>
+    <hyperlink ref="P1" location="'scenario 7 &amp; 9'!A1" display="scemario 7" xr:uid="{996CECD1-4150-BF46-BCF4-E442F8295CBE}"/>
+    <hyperlink ref="R1" location="'scenario 7 &amp; 9'!A1" display="scenario 9" xr:uid="{074CB2B2-E65A-244A-99E8-90D16357C184}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1888,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D65A8-6530-154B-BC81-D31F77D86AB0}">
-  <dimension ref="A39:E44"/>
+  <dimension ref="A39:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1901,7 +2077,7 @@
     <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="39" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>23</v>
       </c>
@@ -1918,7 +2094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>28</v>
       </c>
@@ -1932,22 +2108,103 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>35</v>
       </c>
+      <c r="G42" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB420C61-4460-D945-9594-F83BD27C4866}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PerformanceGeneratorV2.xlsx
+++ b/docs/PerformanceGeneratorV2.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506DBA0F-793B-934C-A878-4D864769BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E10C46-21B3-1A4E-A224-692D9D2C1B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="v2" sheetId="3" r:id="rId1"/>
     <sheet name="scenario 1 &amp; 3 &amp; 5" sheetId="4" r:id="rId2"/>
-    <sheet name="scenario 7 &amp; 9" sheetId="5" r:id="rId3"/>
-    <sheet name="scenario 8 &amp; 10" sheetId="6" r:id="rId4"/>
+    <sheet name="1000 Vs. 2000 Std 1h" sheetId="5" r:id="rId3"/>
+    <sheet name="1000 Vs. 2000 Prm 1h" sheetId="6" r:id="rId4"/>
+    <sheet name="1000 Std 2h" sheetId="7" r:id="rId5"/>
+    <sheet name="1500 Std 2h" sheetId="8" r:id="rId6"/>
+    <sheet name="1500 - eh prm - storage std" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>scenario: upload  3MB file</t>
   </si>
@@ -892,13 +896,103 @@
   </si>
   <si>
     <t>It took 15min more to complete the failing PutBlob operation !!</t>
+  </si>
+  <si>
+    <t>client bandwitch error  can be happen because reaching to storage soft limits quatas - https://docs.microsoft.com/en-us/azure/storage/common/scalability-targets-standard-account</t>
+  </si>
+  <si>
+    <t>scenario 10</t>
+  </si>
+  <si>
+    <t>Scenario 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1000 files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">per sec 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>for 2 hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (appender service run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>~1 pods per node - 32 nodes f4s_v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eventub  1TU - 32 partitions</t>
+    </r>
+  </si>
+  <si>
+    <t>2 runs - little different results</t>
+  </si>
+  <si>
+    <t>granularity - 1min</t>
+  </si>
+  <si>
+    <t>1min - granularity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1007,6 +1101,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1062,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1112,6 +1214,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1494,6 +1598,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D2C2E2-5BE4-81F4-A335-0E7D07DDE73A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16065500" y="9410700"/>
+          <a:ext cx="4559300" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1579,6 +1727,241 @@
         <a:xfrm>
           <a:off x="0" y="8750300"/>
           <a:ext cx="13779500" cy="4927600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9A068A-52F5-D1AD-1CEE-98FAE4771C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14922500" y="8496300"/>
+          <a:ext cx="4483100" cy="6261100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>135580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2537520E-3F60-7C64-E27D-9AE93B88BE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="10261600"/>
+          <a:ext cx="15875000" cy="10193980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>469210</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE22E09A-E30A-9679-E08E-353E3D8E46BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="571500"/>
+          <a:ext cx="17131610" cy="9448800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>89668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257125BE-25EC-4949-E0ED-2636DD847A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="482600"/>
+          <a:ext cx="17805400" cy="9563868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>395932</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46729A10-F2B2-E630-F91D-1E2C71A7B99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="508000"/>
+          <a:ext cx="18950632" cy="10109200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0060E-F532-F846-B1C3-67FC916E9829}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView zoomScale="126" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1909,9 +2292,10 @@
     <col min="15" max="15" width="7" customWidth="1"/>
     <col min="16" max="17" width="21" customWidth="1"/>
     <col min="18" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1927,17 +2311,20 @@
       <c r="P1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="13" t="s">
         <v>37</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>25</v>
+      <c r="S1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1982,8 +2369,11 @@
       <c r="S2" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="T2" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -2009,7 +2399,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>1</v>
@@ -2040,8 +2430,11 @@
     <hyperlink ref="M1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 5" xr:uid="{8039042E-166E-2944-A11A-B3BE0DFE980D}"/>
     <hyperlink ref="J1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 3" xr:uid="{313A3914-2A1B-EA48-B72B-53B5315CA1B3}"/>
     <hyperlink ref="G1" location="'scenario 1 &amp; 3 &amp; 5'!A1" display="scenario 1" xr:uid="{118E98CB-D4FE-B24D-8611-82EF641D9935}"/>
-    <hyperlink ref="P1" location="'scenario 7 &amp; 9'!A1" display="scemario 7" xr:uid="{996CECD1-4150-BF46-BCF4-E442F8295CBE}"/>
-    <hyperlink ref="R1" location="'scenario 7 &amp; 9'!A1" display="scenario 9" xr:uid="{074CB2B2-E65A-244A-99E8-90D16357C184}"/>
+    <hyperlink ref="P1" location="'1000 Vs. 2000 Std 1h'!A1" display="scemario 7" xr:uid="{996CECD1-4150-BF46-BCF4-E442F8295CBE}"/>
+    <hyperlink ref="R1" location="'1000 Vs. 2000 Std 1h'!A1" display="scenario 9" xr:uid="{074CB2B2-E65A-244A-99E8-90D16357C184}"/>
+    <hyperlink ref="Q1" location="'1000 Vs. 2000 Prm 1h'!A1" display="scemario 8" xr:uid="{2D83C950-EED9-AC4F-B1D3-1EBD3C047FA6}"/>
+    <hyperlink ref="S1" location="'1000 Vs. 2000 Prm 1h'!A1" display="scenario 10" xr:uid="{883C73D9-C89A-5D4C-B3D2-5C0EC4A1E87C}"/>
+    <hyperlink ref="T1" location="'1000 Std 2h'!A1" display="Scenario 11" xr:uid="{34E2912A-AA2C-234F-B814-D1B121EEF3F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2066,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D65A8-6530-154B-BC81-D31F77D86AB0}">
   <dimension ref="A39:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2138,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB420C61-4460-D945-9594-F83BD27C4866}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2157,7 +2550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>40</v>
       </c>
@@ -2174,7 +2567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>44</v>
       </c>
@@ -2188,12 +2581,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="G38" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>42</v>
       </c>
@@ -2205,6 +2601,83 @@
       </c>
       <c r="E39" s="17" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6C79F5-A965-8848-9699-E3313B663512}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EF00E7-72EF-DD46-9D7B-56E9B98D7957}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCFC81-0CE8-C149-8110-E2DD76BFA525}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PerformanceGeneratorV2.xlsx
+++ b/docs/PerformanceGeneratorV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E10C46-21B3-1A4E-A224-692D9D2C1B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC8C91E-EAFB-E84F-90AC-71EE5BCE53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="v2" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="1000 Std 2h" sheetId="7" r:id="rId5"/>
     <sheet name="1500 Std 2h" sheetId="8" r:id="rId6"/>
     <sheet name="1500 - eh prm - storage std" sheetId="9" r:id="rId7"/>
+    <sheet name="2000 - eh prm - storage std" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>scenario: upload  3MB file</t>
   </si>
@@ -986,6 +986,12 @@
   </si>
   <si>
     <t>1min - granularity</t>
+  </si>
+  <si>
+    <t>2 runs</t>
+  </si>
+  <si>
+    <t>1min granularity</t>
   </si>
 </sst>
 </file>
@@ -1921,6 +1927,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>108288</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331F8BA2-6291-813A-6ECF-CFB48619E901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10566400"/>
+          <a:ext cx="17837488" cy="9842500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1962,6 +2012,55 @@
         <a:xfrm>
           <a:off x="0" y="508000"/>
           <a:ext cx="18950632" cy="10109200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30306</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87CD8E4-A3F9-C261-9669-9D490AE89A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="406400"/>
+          <a:ext cx="17365806" cy="9334500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2640,9 +2739,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EF00E7-72EF-DD46-9D7B-56E9B98D7957}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCFC81-0CE8-C149-8110-E2DD76BFA525}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2658,31 +2786,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCFC81-0CE8-C149-8110-E2DD76BFA525}">
-  <dimension ref="A2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34494AEF-1F1D-764C-88FB-F7E40C984B0E}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>57</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/docs/PerformanceGeneratorV2.xlsx
+++ b/docs/PerformanceGeneratorV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaronprigal/sources/github/sample-azure-eventer/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC8C91E-EAFB-E84F-90AC-71EE5BCE53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218A3F9-5C6D-AB4D-9EB0-F80858BCF69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="2" activeTab="9" xr2:uid="{7CFC8003-B321-4E4E-99AF-FD7AA9F6F2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="v2" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="1500 Std 2h" sheetId="8" r:id="rId6"/>
     <sheet name="1500 - eh prm - storage std" sheetId="9" r:id="rId7"/>
     <sheet name="2000 - eh prm - storage std" sheetId="10" r:id="rId8"/>
+    <sheet name="1700 - eh prm - storage std" sheetId="11" r:id="rId9"/>
+    <sheet name="1700 - 2 eh prm - storage std" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>scenario: upload  3MB file</t>
   </si>
@@ -1278,6 +1280,55 @@
         <a:xfrm>
           <a:off x="1936013" y="3048773"/>
           <a:ext cx="12171066" cy="3053118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F34BC15-6B8F-F3E4-3629-A52EFC632E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="203200"/>
+          <a:ext cx="17513300" cy="9766300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2072,6 +2123,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A75A689-5CCA-A7C6-C5B3-337DD6D2CCE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="647700"/>
+          <a:ext cx="17818100" cy="11201400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2541,6 +2641,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9B5ACF-4EC5-8744-AD19-80076805A480}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3BF52-2960-904C-A662-3A92B7AA0CFA}">
   <dimension ref="A1"/>
@@ -2795,11 +2919,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34494AEF-1F1D-764C-88FB-F7E40C984B0E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CB1D07-554B-1244-B891-01D7F41558E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
